--- a/data/ko/parser/ko-parser-train.xlsx
+++ b/data/ko/parser/ko-parser-train.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="samples" sheetId="1" r:id="rId1"/>
+    <sheet name="deprel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="394">
   <si>
     <t>나는</t>
   </si>
@@ -160,13 +161,1113 @@
   </si>
   <si>
     <t>어떻</t>
+  </si>
+  <si>
+    <t>명사+주격조사</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>NP-MOD</t>
+  </si>
+  <si>
+    <t>명사+관형격조사</t>
+  </si>
+  <si>
+    <t>NP-ADV</t>
+  </si>
+  <si>
+    <t>명사+부사격조사</t>
+  </si>
+  <si>
+    <t>명사+목적격조사</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>부사구절</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>AUXP</t>
+  </si>
+  <si>
+    <t>보조용언구절</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <charset val="129"/>
+      </rPr>
+      <t>첫째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 인간은 실천적 존재다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이뿐이랴! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔명조"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 책읽기를 좋아한다.</t>
+    </r>
+  </si>
+  <si>
+    <t>동사구절(동사+연결어미, 동사+종결어미)</t>
+  </si>
+  <si>
+    <t>형용사구절(형용사+연결어미,형용사+종결어미)</t>
+  </si>
+  <si>
+    <t>그대로, 틈틈히, 즉시</t>
+  </si>
+  <si>
+    <t>관형사구절?</t>
+  </si>
+  <si>
+    <t>그</t>
+  </si>
+  <si>
+    <t>독립구절(표제어, 감탄어, 호칭어, 문장접속부사)</t>
+  </si>
+  <si>
+    <t>MODP(DEP)</t>
+  </si>
+  <si>
+    <t>그, 이</t>
+  </si>
+  <si>
+    <t>넷째</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>채택된</t>
+  </si>
+  <si>
+    <t>전략을</t>
+  </si>
+  <si>
+    <t>끈기를</t>
+  </si>
+  <si>
+    <t>가지고</t>
+  </si>
+  <si>
+    <t>강력히</t>
+  </si>
+  <si>
+    <t>실천하는</t>
+  </si>
+  <si>
+    <t>것</t>
+  </si>
+  <si>
+    <t>실천하</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>채택되</t>
+  </si>
+  <si>
+    <t>VV,ETM</t>
+  </si>
+  <si>
+    <t>VV,ETM_ㄴ</t>
+  </si>
+  <si>
+    <t>NN,JKO_을</t>
+  </si>
+  <si>
+    <t>가지</t>
+  </si>
+  <si>
+    <t>VV,EC</t>
+  </si>
+  <si>
+    <t>VV,EC_고</t>
+  </si>
+  <si>
+    <t>VV,ETM_는</t>
+  </si>
+  <si>
+    <t>NNB</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>매입</t>
+  </si>
+  <si>
+    <t>다음날</t>
+  </si>
+  <si>
+    <t>상승</t>
+  </si>
+  <si>
+    <t>350원</t>
+  </si>
+  <si>
+    <t>30원</t>
+  </si>
+  <si>
+    <t>이어</t>
+  </si>
+  <si>
+    <t>400원</t>
+  </si>
+  <si>
+    <t>날개</t>
+  </si>
+  <si>
+    <t>달린</t>
+  </si>
+  <si>
+    <t>새라면</t>
+  </si>
+  <si>
+    <t>당장에라도</t>
+  </si>
+  <si>
+    <t>당신</t>
+  </si>
+  <si>
+    <t>곁으로</t>
+  </si>
+  <si>
+    <t>날아갈</t>
+  </si>
+  <si>
+    <t>수도</t>
+  </si>
+  <si>
+    <t>있으련만</t>
+  </si>
+  <si>
+    <t>문화의</t>
+  </si>
+  <si>
+    <t>다원주의를</t>
+  </si>
+  <si>
+    <t>위하여</t>
+  </si>
+  <si>
+    <t>마치</t>
+  </si>
+  <si>
+    <t>인간의</t>
+  </si>
+  <si>
+    <t>육체가</t>
+  </si>
+  <si>
+    <t>선과</t>
+  </si>
+  <si>
+    <t>악을</t>
+  </si>
+  <si>
+    <t>아무</t>
+  </si>
+  <si>
+    <t>탈</t>
+  </si>
+  <si>
+    <t>없이</t>
+  </si>
+  <si>
+    <t>지니고</t>
+  </si>
+  <si>
+    <t>다니는</t>
+  </si>
+  <si>
+    <t>것처럼</t>
+  </si>
+  <si>
+    <t>언제</t>
+  </si>
+  <si>
+    <t>귀국할는지</t>
+  </si>
+  <si>
+    <t>예정이</t>
+  </si>
+  <si>
+    <t>없는</t>
+  </si>
+  <si>
+    <t>채로</t>
+  </si>
+  <si>
+    <t>고혹적인</t>
+  </si>
+  <si>
+    <t>동화의</t>
+  </si>
+  <si>
+    <t>첫신호를</t>
+  </si>
+  <si>
+    <t>사랑하는</t>
+  </si>
+  <si>
+    <t>청취자</t>
+  </si>
+  <si>
+    <t>여러분</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>물론</t>
+  </si>
+  <si>
+    <t>일제</t>
+  </si>
+  <si>
+    <t>앞잡이들을</t>
+  </si>
+  <si>
+    <t>제외하고</t>
+  </si>
+  <si>
+    <t>말이다</t>
+  </si>
+  <si>
+    <t>꿈은</t>
+  </si>
+  <si>
+    <t>곧</t>
+  </si>
+  <si>
+    <t>자존심이다</t>
+  </si>
+  <si>
+    <t>젊은이여</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>결코</t>
+  </si>
+  <si>
+    <t>의심해선</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>된다</t>
+  </si>
+  <si>
+    <t>사람은</t>
+  </si>
+  <si>
+    <t>사회적</t>
+  </si>
+  <si>
+    <t>동물이다</t>
+  </si>
+  <si>
+    <t>라고</t>
+  </si>
+  <si>
+    <t>말한</t>
+  </si>
+  <si>
+    <t>학자가</t>
+  </si>
+  <si>
+    <t>있다</t>
+  </si>
+  <si>
+    <t>이러한</t>
+  </si>
+  <si>
+    <t>독서를</t>
+  </si>
+  <si>
+    <t>계기로</t>
+  </si>
+  <si>
+    <t>어두운</t>
+  </si>
+  <si>
+    <t>마음이</t>
+  </si>
+  <si>
+    <t>밝아지고</t>
+  </si>
+  <si>
+    <t>무기력했던</t>
+  </si>
+  <si>
+    <t>사람이</t>
+  </si>
+  <si>
+    <t>용기와</t>
+  </si>
+  <si>
+    <t>힘을</t>
+  </si>
+  <si>
+    <t>얻게</t>
+  </si>
+  <si>
+    <t>되기도</t>
+  </si>
+  <si>
+    <t>한다</t>
+  </si>
+  <si>
+    <t>1739년</t>
+  </si>
+  <si>
+    <t>들어</t>
+  </si>
+  <si>
+    <t>가격이</t>
+  </si>
+  <si>
+    <t>폭락</t>
+  </si>
+  <si>
+    <t>1734년</t>
+  </si>
+  <si>
+    <t>가격의</t>
+  </si>
+  <si>
+    <t>10분의</t>
+  </si>
+  <si>
+    <t>20분의</t>
+  </si>
+  <si>
+    <t>수준으로</t>
+  </si>
+  <si>
+    <t>떨어졌다</t>
+  </si>
+  <si>
+    <t>우리</t>
+  </si>
+  <si>
+    <t>집은</t>
+  </si>
+  <si>
+    <t>내가</t>
+  </si>
+  <si>
+    <t>다섯</t>
+  </si>
+  <si>
+    <t>살</t>
+  </si>
+  <si>
+    <t>때</t>
+  </si>
+  <si>
+    <t>서울로</t>
+  </si>
+  <si>
+    <t>이사를</t>
+  </si>
+  <si>
+    <t>했습니다</t>
+  </si>
+  <si>
+    <t>후</t>
+  </si>
+  <si>
+    <t>10년</t>
+  </si>
+  <si>
+    <t>동안에</t>
+  </si>
+  <si>
+    <t>2배</t>
+  </si>
+  <si>
+    <t>20년</t>
+  </si>
+  <si>
+    <t>3배가</t>
+  </si>
+  <si>
+    <t>성장하였다</t>
+  </si>
+  <si>
+    <t>창조의</t>
+  </si>
+  <si>
+    <t>질서는</t>
+  </si>
+  <si>
+    <t>뒤집어져</t>
+  </si>
+  <si>
+    <t>육은</t>
+  </si>
+  <si>
+    <t>혼을</t>
+  </si>
+  <si>
+    <t>혼은</t>
+  </si>
+  <si>
+    <t>영을</t>
+  </si>
+  <si>
+    <t>지배하게</t>
+  </si>
+  <si>
+    <t>되었다</t>
+  </si>
+  <si>
+    <t>축구에서는</t>
+  </si>
+  <si>
+    <t>다른</t>
+  </si>
+  <si>
+    <t>집단</t>
+  </si>
+  <si>
+    <t>스포츠와</t>
+  </si>
+  <si>
+    <t>마찬가지로</t>
+  </si>
+  <si>
+    <t>한</t>
+  </si>
+  <si>
+    <t>팀의</t>
+  </si>
+  <si>
+    <t>움직임은</t>
+  </si>
+  <si>
+    <t>상대팀의</t>
+  </si>
+  <si>
+    <t>움직임과</t>
+  </si>
+  <si>
+    <t>상호</t>
+  </si>
+  <si>
+    <t>관련된다</t>
+  </si>
+  <si>
+    <t>욕구에서</t>
+  </si>
+  <si>
+    <t>욕망으로의</t>
+  </si>
+  <si>
+    <t>전환이라는</t>
+  </si>
+  <si>
+    <t>대중문화의</t>
+  </si>
+  <si>
+    <t>전략</t>
+  </si>
+  <si>
+    <t>변화를</t>
+  </si>
+  <si>
+    <t>뜻한다</t>
+  </si>
+  <si>
+    <t>이는</t>
+  </si>
+  <si>
+    <t>경제성장을</t>
+  </si>
+  <si>
+    <t>수출</t>
+  </si>
+  <si>
+    <t>중심에서</t>
+  </si>
+  <si>
+    <t>내수</t>
+  </si>
+  <si>
+    <t>중심으로</t>
+  </si>
+  <si>
+    <t>전환시켰다</t>
+  </si>
+  <si>
+    <t>시합의</t>
+  </si>
+  <si>
+    <t>동향은</t>
+  </si>
+  <si>
+    <t>어느</t>
+  </si>
+  <si>
+    <t>편에</t>
+  </si>
+  <si>
+    <t>의해서도</t>
+  </si>
+  <si>
+    <t>또는</t>
+  </si>
+  <si>
+    <t>개인에</t>
+  </si>
+  <si>
+    <t>제어될</t>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>없다</t>
+  </si>
+  <si>
+    <t>지구를</t>
+  </si>
+  <si>
+    <t>소중히</t>
+  </si>
+  <si>
+    <t>보호하기</t>
+  </si>
+  <si>
+    <t>위해서나</t>
+  </si>
+  <si>
+    <t>미래의</t>
+  </si>
+  <si>
+    <t>번영을</t>
+  </si>
+  <si>
+    <t>위한</t>
+  </si>
+  <si>
+    <t>자원</t>
+  </si>
+  <si>
+    <t>개발을</t>
+  </si>
+  <si>
+    <t>바다를</t>
+  </si>
+  <si>
+    <t>알고</t>
+  </si>
+  <si>
+    <t>바다와</t>
+  </si>
+  <si>
+    <t>친하고</t>
+  </si>
+  <si>
+    <t>또</t>
+  </si>
+  <si>
+    <t>이용하는</t>
+  </si>
+  <si>
+    <t>것은</t>
+  </si>
+  <si>
+    <t>중요한</t>
+  </si>
+  <si>
+    <t>일이다</t>
+  </si>
+  <si>
+    <t>얼마나</t>
+  </si>
+  <si>
+    <t>미세하게</t>
+  </si>
+  <si>
+    <t>그리고</t>
+  </si>
+  <si>
+    <t>정확하게</t>
+  </si>
+  <si>
+    <t>전자회로를</t>
+  </si>
+  <si>
+    <t>묘사하는가가</t>
+  </si>
+  <si>
+    <t>기술발전의</t>
+  </si>
+  <si>
+    <t>척도가</t>
+  </si>
+  <si>
+    <t>순간적인</t>
+  </si>
+  <si>
+    <t>놀라움</t>
+  </si>
+  <si>
+    <t>속에</t>
+  </si>
+  <si>
+    <t>왜이냐고</t>
+  </si>
+  <si>
+    <t>물었다</t>
+  </si>
+  <si>
+    <t>저자가</t>
+  </si>
+  <si>
+    <t>본격적으로</t>
+  </si>
+  <si>
+    <t>죽음을</t>
+  </si>
+  <si>
+    <t>맞게되는</t>
+  </si>
+  <si>
+    <t>구조주의와</t>
+  </si>
+  <si>
+    <t>포스트구조주의에</t>
+  </si>
+  <si>
+    <t>이르러서이다</t>
+  </si>
+  <si>
+    <t>앞서</t>
+  </si>
+  <si>
+    <t>대로</t>
+  </si>
+  <si>
+    <t>한국인의</t>
+  </si>
+  <si>
+    <t>영향권을</t>
+  </si>
+  <si>
+    <t>외면하고</t>
+  </si>
+  <si>
+    <t>싶어서였을까</t>
+  </si>
+  <si>
+    <t>시대나</t>
+  </si>
+  <si>
+    <t>거품의</t>
+  </si>
+  <si>
+    <t>존재를</t>
+  </si>
+  <si>
+    <t>인식하게</t>
+  </si>
+  <si>
+    <t>되는</t>
+  </si>
+  <si>
+    <t>시점은</t>
+  </si>
+  <si>
+    <t>붕괴가</t>
+  </si>
+  <si>
+    <t>시작되고</t>
+  </si>
+  <si>
+    <t>나서부터이다</t>
+  </si>
+  <si>
+    <t>모든</t>
+  </si>
+  <si>
+    <t>사람들을</t>
+  </si>
+  <si>
+    <t>있는</t>
+  </si>
+  <si>
+    <t>그대로</t>
+  </si>
+  <si>
+    <t>바라보게</t>
+  </si>
+  <si>
+    <t>양산은</t>
+  </si>
+  <si>
+    <t>그런</t>
+  </si>
+  <si>
+    <t>선물이</t>
+  </si>
+  <si>
+    <t>싫다는</t>
+  </si>
+  <si>
+    <t>듯이</t>
+  </si>
+  <si>
+    <t>행동한다</t>
+  </si>
+  <si>
+    <t>일하는</t>
+  </si>
+  <si>
+    <t>틈틈이</t>
+  </si>
+  <si>
+    <t>주식관계</t>
+  </si>
+  <si>
+    <t>서적을</t>
+  </si>
+  <si>
+    <t>읽고</t>
+  </si>
+  <si>
+    <t>있던</t>
+  </si>
+  <si>
+    <t>귀하에게</t>
+  </si>
+  <si>
+    <t>책을</t>
+  </si>
+  <si>
+    <t>선물합니다</t>
+  </si>
+  <si>
+    <t>알티라는</t>
+  </si>
+  <si>
+    <t>즉시</t>
+  </si>
+  <si>
+    <t>사절단을</t>
+  </si>
+  <si>
+    <t>취조하여</t>
+  </si>
+  <si>
+    <t>암살</t>
+  </si>
+  <si>
+    <t>지령을</t>
+  </si>
+  <si>
+    <t>받은</t>
+  </si>
+  <si>
+    <t>비길라스의</t>
+  </si>
+  <si>
+    <t>실토를</t>
+  </si>
+  <si>
+    <t>받았다</t>
+  </si>
+  <si>
+    <t>옐친을</t>
+  </si>
+  <si>
+    <t>체포한</t>
+  </si>
+  <si>
+    <t>어디론가</t>
+  </si>
+  <si>
+    <t>데려가려</t>
+  </si>
+  <si>
+    <t>했다는</t>
+  </si>
+  <si>
+    <t>것이다</t>
+  </si>
+  <si>
+    <t>노자가</t>
+  </si>
+  <si>
+    <t>지은이로</t>
+  </si>
+  <si>
+    <t>되어</t>
+  </si>
+  <si>
+    <t>있으며</t>
+  </si>
+  <si>
+    <t>한편</t>
+  </si>
+  <si>
+    <t>도덕경은</t>
+  </si>
+  <si>
+    <t>서양</t>
+  </si>
+  <si>
+    <t>언어로</t>
+  </si>
+  <si>
+    <t>자주</t>
+  </si>
+  <si>
+    <t>번역되었다</t>
+  </si>
+  <si>
+    <t>청은</t>
+  </si>
+  <si>
+    <t>조선의</t>
+  </si>
+  <si>
+    <t>내정을</t>
+  </si>
+  <si>
+    <t>지나치게</t>
+  </si>
+  <si>
+    <t>간섭하고</t>
+  </si>
+  <si>
+    <t>있었다</t>
+  </si>
+  <si>
+    <t>주식</t>
+  </si>
+  <si>
+    <t>그래프에</t>
+  </si>
+  <si>
+    <t>관한</t>
+  </si>
+  <si>
+    <t>입문서를</t>
+  </si>
+  <si>
+    <t>사서</t>
+  </si>
+  <si>
+    <t>읽는</t>
+  </si>
+  <si>
+    <t>매일의</t>
+  </si>
+  <si>
+    <t>변동을</t>
+  </si>
+  <si>
+    <t>기록하여</t>
+  </si>
+  <si>
+    <t>나갔다</t>
+  </si>
+  <si>
+    <t>반면</t>
+  </si>
+  <si>
+    <t>세종기지</t>
+  </si>
+  <si>
+    <t>건설</t>
+  </si>
+  <si>
+    <t>기술자</t>
+  </si>
+  <si>
+    <t>7명이</t>
+  </si>
+  <si>
+    <t>1만불을</t>
+  </si>
+  <si>
+    <t>요구하였다</t>
+  </si>
+  <si>
+    <t>세계성은</t>
+  </si>
+  <si>
+    <t>점차</t>
+  </si>
+  <si>
+    <t>증가하는</t>
+  </si>
+  <si>
+    <t>세계주의는</t>
+  </si>
+  <si>
+    <t>이제</t>
+  </si>
+  <si>
+    <t>겨우</t>
+  </si>
+  <si>
+    <t>눈을</t>
+  </si>
+  <si>
+    <t>뜬</t>
+  </si>
+  <si>
+    <t>독자로</t>
+  </si>
+  <si>
+    <t>하여금</t>
+  </si>
+  <si>
+    <t>거기에서</t>
+  </si>
+  <si>
+    <t>무엇인가를</t>
+  </si>
+  <si>
+    <t>찾도록</t>
+  </si>
+  <si>
+    <t>의도하고</t>
+  </si>
+  <si>
+    <t>제</t>
+  </si>
+  <si>
+    <t>엄마와</t>
+  </si>
+  <si>
+    <t>함께</t>
+  </si>
+  <si>
+    <t>누군가의</t>
+  </si>
+  <si>
+    <t>면회를</t>
+  </si>
+  <si>
+    <t>따라온</t>
+  </si>
+  <si>
+    <t>것이겠지</t>
+  </si>
+  <si>
+    <t>연예게는</t>
+  </si>
+  <si>
+    <t>스포츠</t>
+  </si>
+  <si>
+    <t>흥행도</t>
+  </si>
+  <si>
+    <t>야쿠자의</t>
+  </si>
+  <si>
+    <t>사업이다</t>
+  </si>
+  <si>
+    <t>이와는</t>
+  </si>
+  <si>
+    <t>거꾸로</t>
+  </si>
+  <si>
+    <t>서구사람들에겐</t>
+  </si>
+  <si>
+    <t>우리의</t>
+  </si>
+  <si>
+    <t>정신세계나</t>
+  </si>
+  <si>
+    <t>문화에</t>
+  </si>
+  <si>
+    <t>아무런</t>
+  </si>
+  <si>
+    <t>예비지식이</t>
+  </si>
+  <si>
+    <t>#17페이지 5.3 병렬 표현의 부사구절</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +1307,14 @@
       <name val="나눔명조"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="나눔명조"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -230,26 +1339,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,17 +1763,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A462" sqref="A462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
@@ -629,7 +1813,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -655,7 +1839,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -674,14 +1858,14 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -707,7 +1891,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -731,7 +1915,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -743,7 +1927,7 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -769,7 +1953,7 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -795,7 +1979,7 @@
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -821,7 +2005,7 @@
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -847,7 +2031,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -873,7 +2057,7 @@
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -892,14 +2076,14 @@
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -925,7 +2109,7 @@
       <c r="A15" s="1">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -951,7 +2135,7 @@
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -971,6 +2155,3542 @@
       </c>
       <c r="H16" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>14</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>5</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>6</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>8</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>3</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>5</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>6</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>8</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>9</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>10</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>11</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>12</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>4</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>5</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>6</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>2</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>3</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>4</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>5</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>4</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>3</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>4</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>5</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>6</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>2</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>3</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>4</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>5</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>3</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>4</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>5</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>6</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>7</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>3</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>4</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>5</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>6</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>7</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>8</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>9</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>10</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>11</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>2</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>3</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>4</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>5</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>6</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>7</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>8</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>9</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>10</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>11</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>12</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>13</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>14</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>2</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>3</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>4</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>5</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>6</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>7</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>8</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>9</v>
+      </c>
+      <c r="B147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>10</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>11</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>12</v>
+      </c>
+      <c r="B150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>13</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>14</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>15</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>2</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>3</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>4</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>5</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>6</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>7</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>8</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>9</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>10</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>2</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>3</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>4</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>5</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>6</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>7</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>8</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>9</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>10</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>11</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>2</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>3</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>4</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>5</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>6</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>7</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>8</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>9</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>10</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>11</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>2</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>3</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>4</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>5</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>6</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>7</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>8</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>9</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>10</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>11</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>12</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>13</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>14</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>1</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>2</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>3</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>4</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>5</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>6</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>7</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>8</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>9</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>1</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>2</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>3</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>4</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>5</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>6</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>7</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>8</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>1</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>2</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>3</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>4</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>5</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>6</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>7</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>8</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>9</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>10</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>11</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>12</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>13</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>14</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>1</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>2</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>3</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>4</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>5</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>6</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>7</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>8</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>9</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>10</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>11</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>12</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>13</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>14</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>15</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>16</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>17</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>18</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>19</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>20</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>21</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>22</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>23</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>24</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>1</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>2</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>3</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>4</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>5</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>6</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>7</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>8</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>9</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>10</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>11</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>1</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>2</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>3</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>4</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>5</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>6</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>7</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>1</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>2</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>3</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>4</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>5</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>6</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>7</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>8</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>9</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>1</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>2</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>3</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>4</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>5</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>6</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>7</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>8</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>1</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>3</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>4</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>5</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>6</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>7</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>8</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>9</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>10</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>11</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>12</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>13</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>1</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>3</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>4</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>5</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>6</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>7</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>1</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>3</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>4</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>5</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>6</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>7</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>8</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>1</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>2</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>3</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>4</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>5</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>6</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>7</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>8</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>9</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>10</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>11</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>1</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>2</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>3</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>4</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>5</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>6</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>7</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>8</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>9</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>10</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>11</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>12</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>1</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>2</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>3</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>4</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>5</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>6</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>7</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>8</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>1</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>2</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>3</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>4</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>5</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>6</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>7</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>8</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>9</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>10</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>11</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>1</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>2</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>3</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>4</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>5</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>6</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>7</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>8</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>1</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>2</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>3</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>4</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>5</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>6</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>7</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>8</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>9</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>10</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>11</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>12</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>1</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>2</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>3</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>4</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>5</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>6</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>7</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>8</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>1</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>2</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>3</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>4</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>5</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>6</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>7</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>8</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>9</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>10</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>11</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>1</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>2</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>3</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>4</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>5</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>6</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>7</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>8</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>9</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>1</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>2</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>3</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>4</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>5</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>6</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>7</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>8</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>1</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>2</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>3</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>4</v>
+      </c>
+      <c r="B445" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>5</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>6</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>7</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>1</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>3</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>4</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>5</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>6</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>7</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>8</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>9</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>10</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>11</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/ko/parser/ko-parser-train.xlsx
+++ b/data/ko/parser/ko-parser-train.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -1267,7 +1267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1314,6 +1314,13 @@
       <color theme="1"/>
       <name val="나눔명조"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1766,8 +1773,8 @@
   <dimension ref="A1:H462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A462" sqref="A462"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5582,14 +5589,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -5694,11 +5701,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
